--- a/Multivariate_arff/DataDimensions.xlsx
+++ b/Multivariate_arff/DataDimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\science\phd_codesource\Multivariate_arff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E13E57-1EFA-46AE-A7E9-2DF5721F5339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66CABB2-C86B-4411-80CB-F6879BCB461C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{432C5204-7270-4FC0-8D85-9CD344391A8D}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" xr2:uid="{432C5204-7270-4FC0-8D85-9CD344391A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -278,12 +278,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -298,8 +304,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -621,7 +628,7 @@
   <dimension ref="A1:CJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="A31" sqref="A31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,34 +679,34 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>275</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>300</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>144</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
         <v>11</v>
       </c>
     </row>
@@ -800,34 +807,34 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>108</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>72</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1197</v>
       </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6">
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
         <v>9</v>
       </c>
     </row>
@@ -864,34 +871,34 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>128</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>131</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>17984</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8">
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1">
         <v>55</v>
       </c>
     </row>
@@ -960,34 +967,34 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>270</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>65</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1184,34 +1191,34 @@
       </c>
     </row>
     <row r="18" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>270</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>370</v>
       </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
         <v>29</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>9</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18">
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1">
         <v>30</v>
       </c>
     </row>
@@ -1280,34 +1287,34 @@
       </c>
     </row>
     <row r="21" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>278</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>100</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>64</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>3000</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21">
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
         <v>139</v>
       </c>
     </row>
@@ -1600,34 +1607,34 @@
       </c>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>320</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>315</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>8</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31">
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1">
         <v>15</v>
       </c>
       <c r="CJ31" t="s">
